--- a/Projects/Voicemeeter/test.xlsx
+++ b/Projects/Voicemeeter/test.xlsx
@@ -629,6 +629,99 @@
         </r>
       </text>
     </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.12      $0.12
+  4000   $0.12    $487.04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.47      $0.47
+    10   $0.27      $2.73
+   100   $0.17     $16.50
+   500   $0.15     $75.50
+  1000   $0.14    $135.00
+  4000   $0.10    $400.00
+  8000   $0.09    $728.00
+ 24000   $0.09   $2136.00
+ 48000   $0.08   $3744.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.27      $0.27
+    10   $0.27      $2.66
+    25   $0.23      $5.78
+    50   $0.20      $9.80
+   100   $0.16     $16.10
+   250   $0.15     $38.50
+   500   $0.15     $73.50
+  1000   $0.13    $132.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1  $40.95     $40.95</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H26" authorId="0">
       <text>
         <r>
@@ -766,7 +859,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -807,7 +900,7 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>Capacitors_SMD:C_1206_HandSoldering</t>
+    <t>C0603C106M8PACTU</t>
   </si>
   <si>
     <t>D501</t>
@@ -885,6 +978,9 @@
     <t>1.5"OLED</t>
   </si>
   <si>
+    <t>1431</t>
+  </si>
+  <si>
     <t>R514,R521</t>
   </si>
   <si>
@@ -999,7 +1095,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>11.05.2018 15:27:40</t>
+    <t>11.05.2018 16:48:16</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1014,7 +1110,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-05-11 15:28:08</t>
+    <t>2018-05-11 16:48:44</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -1029,22 +1125,34 @@
     <t>Cat#</t>
   </si>
   <si>
+    <t>399-14945-2-ND</t>
+  </si>
+  <si>
+    <t>NonStk</t>
+  </si>
+  <si>
     <t>MHPS2285-ND</t>
   </si>
   <si>
-    <t>NonStk</t>
-  </si>
-  <si>
     <t>Farnell</t>
   </si>
   <si>
     <t>Mouser</t>
   </si>
   <si>
+    <t>80-C0603C106M8PACTU</t>
+  </si>
+  <si>
+    <t>485-1431</t>
+  </si>
+  <si>
     <t>642-MHPS2285</t>
   </si>
   <si>
     <t>Newark</t>
+  </si>
+  <si>
+    <t>45AC6535</t>
   </si>
   <si>
     <t>Rs Components</t>
@@ -1660,13 +1768,13 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="4">
         <v>100</v>
@@ -1674,11 +1782,11 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1687,13 +1795,13 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="6">
         <f>SUM(G7:G29)</f>
@@ -1750,10 +1858,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1767,42 +1875,42 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -1832,10 +1940,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>6</v>
@@ -1844,13 +1952,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>6</v>
@@ -1859,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="Q6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>6</v>
@@ -1874,13 +1982,13 @@
         <v>7</v>
       </c>
       <c r="V6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>6</v>
@@ -1889,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="AA6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>6</v>
@@ -1904,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="AF6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="AG6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="AI6" s="15" t="s">
         <v>6</v>
@@ -1919,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -1952,7 +2060,7 @@
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="16">
@@ -1966,6 +2074,48 @@
       <c r="G8" s="17">
         <f>iferror(E8*F8,"")</f>
         <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="17">
+        <f>iferror(lookup(if(I8="",E8,I8),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <f>iferror(if(I8="",E8,I8)*J8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="16">
+        <v>67713</v>
+      </c>
+      <c r="T8" s="17">
+        <f>iferror(lookup(if(S8="",E8,S8),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <f>iferror(if(S8="",E8,S8)*T8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="16">
+        <v>860</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>iferror(lookup(if(X8="",E8,X8),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>iferror(if(X8="",E8,X8)*Y8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2156,6 +2306,9 @@
       <c r="B17" s="16" t="s">
         <v>38</v>
       </c>
+      <c r="D17" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="16">
         <f>BoardQty*1</f>
         <v>0</v>
@@ -2168,16 +2321,30 @@
         <f>iferror(E17*F17,"")</f>
         <v>0</v>
       </c>
+      <c r="R17" s="16">
+        <v>37</v>
+      </c>
+      <c r="T17" s="17">
+        <f>iferror(lookup(if(S17="",E17,S17),{0,1},{0.0,40.95}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f>iferror(if(S17="",E17,S17)*T17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="16">
         <f>BoardQty*2</f>
@@ -2194,13 +2361,13 @@
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="E19" s="16">
         <f>BoardQty*1</f>
@@ -2217,13 +2384,13 @@
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="16">
         <f>BoardQty*55</f>
@@ -2240,13 +2407,13 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="16">
         <f>BoardQty*19</f>
@@ -2263,13 +2430,13 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="16">
         <f>BoardQty*1</f>
@@ -2286,13 +2453,13 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="16">
         <f>BoardQty*12</f>
@@ -2309,13 +2476,13 @@
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="16">
         <f>BoardQty*10</f>
@@ -2332,13 +2499,13 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="16">
         <f>BoardQty*1</f>
@@ -2355,16 +2522,16 @@
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="16">
         <f>BoardQty*55</f>
@@ -2379,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J26" s="17">
         <f>iferror(lookup(if(I26="",E26,I26),{0,1,2000},{0.0,0.3424,0.3424}),"")</f>
@@ -2390,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R26" s="16">
         <v>1494</v>
@@ -2404,18 +2571,18 @@
         <v>0</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27" s="16">
         <f>BoardQty*1</f>
@@ -2432,13 +2599,13 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="16">
         <f>BoardQty*1</f>
@@ -2455,13 +2622,13 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="16">
         <f>BoardQty*10</f>
@@ -2478,7 +2645,7 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I31" s="7">
         <f>IFERROR(IF(OR(I7:I29),COUNTIF(I7:I29,"&gt;0")&amp;" of "&amp;ROWS(I7:I29)&amp;" parts purchased",""),"")</f>
@@ -4540,56 +4707,152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="1" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="94" operator="lessThan">
-      <formula>E26</formula>
+      <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="greaterThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="1" priority="95" operator="greaterThan">
-      <formula>H26</formula>
+      <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="4" priority="101" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="4" priority="96" operator="lessThanOrEqual">
-      <formula>F26</formula>
+      <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="4" priority="102" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="cellIs" dxfId="4" priority="97" operator="lessThanOrEqual">
-      <formula>G26</formula>
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="cellIs" dxfId="1" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="109" operator="lessThan">
+      <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThan">
       <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="104" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
+      <formula>R17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="greaterThan">
       <formula>R26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="greaterThan">
+      <formula>R8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="cellIs" dxfId="4" priority="111" operator="lessThanOrEqual">
+      <formula>F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="4" priority="101" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="116" operator="lessThanOrEqual">
       <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="cellIs" dxfId="4" priority="106" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="cellIs" dxfId="4" priority="112" operator="lessThanOrEqual">
+      <formula>G17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="4" priority="102" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
       <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="cellIs" dxfId="4" priority="107" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
+      <formula>W8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
+      <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L26" r:id="rId1"/>
-    <hyperlink ref="V26" r:id="rId2"/>
+    <hyperlink ref="L8" r:id="rId1"/>
+    <hyperlink ref="V8" r:id="rId2"/>
+    <hyperlink ref="AA8" r:id="rId3"/>
+    <hyperlink ref="V17" r:id="rId4"/>
+    <hyperlink ref="L26" r:id="rId5"/>
+    <hyperlink ref="V26" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Projects/Voicemeeter/test.xlsx
+++ b/Projects/Voicemeeter/test.xlsx
@@ -776,6 +776,109 @@
         </r>
       </text>
     </comment>
+    <comment ref="J29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.60      $0.60
+    10   $0.53      $5.31
+   100   $0.41     $40.73
+   500   $0.32    $161.00
+  1000   $0.26    $257.60
+  1575   $0.26    $405.72</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.62      $0.62
+    10   $0.51      $5.13
+   100   $0.33     $33.00
+  1000   $0.27    $265.00
+  2000   $0.24    $480.00
+  5000   $0.22   $1120.00
+ 10000   $0.21   $2150.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.61      $0.61
+    10   $0.50      $5.00
+   100   $0.32     $32.20
+   500   $0.29    $145.00
+  1000   $0.26    $258.00
+  2500   $0.23    $585.00
+ 10000   $0.21   $2100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.54      $0.54
+    25   $0.54     $13.43</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.45      $0.45
+     3   $0.45      $1.34
+    10   $0.41      $4.10
+    50   $0.36     $17.95
+   250   $0.30     $74.25
+  1000   $0.26    $260.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I31" authorId="0">
       <text>
         <r>
@@ -859,7 +962,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1080,7 +1183,7 @@
     <t>74HC4051</t>
   </si>
   <si>
-    <t>Housings_DIP:DIP-16_W7.62mm_LongPads</t>
+    <t>CD74HC4051E</t>
   </si>
   <si>
     <t>Prj:</t>
@@ -1095,7 +1198,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>11.05.2018 16:48:16</t>
+    <t>11.05.2018 19:01:04</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1110,7 +1213,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-05-11 16:48:44</t>
+    <t>2018-05-11 19:01:31</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -1134,6 +1237,9 @@
     <t>MHPS2285-ND</t>
   </si>
   <si>
+    <t>296-12810-5-ND</t>
+  </si>
+  <si>
     <t>Farnell</t>
   </si>
   <si>
@@ -1149,13 +1255,22 @@
     <t>642-MHPS2285</t>
   </si>
   <si>
+    <t>595-CD74HC4051E</t>
+  </si>
+  <si>
     <t>Newark</t>
   </si>
   <si>
     <t>45AC6535</t>
   </si>
   <si>
+    <t>64K3094</t>
+  </si>
+  <si>
     <t>Rs Components</t>
+  </si>
+  <si>
+    <t>526-694</t>
   </si>
   <si>
     <t>Tme</t>
@@ -1882,35 +1997,35 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -2101,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W8" s="16">
         <v>860</v>
@@ -2115,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -2299,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" s="16" t="s">
         <v>37</v>
       </c>
@@ -2333,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="16" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" s="16" t="s">
         <v>43</v>
       </c>
@@ -2382,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
@@ -2405,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" s="16" t="s">
         <v>47</v>
       </c>
@@ -2428,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23" s="16" t="s">
         <v>52</v>
       </c>
@@ -2474,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
@@ -2497,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25" s="16" t="s">
         <v>58</v>
       </c>
@@ -2520,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26" s="16" t="s">
         <v>61</v>
       </c>
@@ -2571,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="16" t="s">
         <v>65</v>
       </c>
@@ -2597,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28" s="16" t="s">
         <v>68</v>
       </c>
@@ -2620,14 +2735,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="16">
@@ -2642,10 +2757,80 @@
         <f>iferror(E29*F29,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="H29" s="16">
+        <v>21859</v>
+      </c>
+      <c r="J29" s="17">
+        <f>iferror(lookup(if(I29="",E29,I29),{0,1,10,100,500,1000,1575},{0.0,0.6,0.531,0.4073,0.322,0.2576,0.2576}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <f>iferror(if(I29="",E29,I29)*J29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R29" s="16">
+        <v>6705</v>
+      </c>
+      <c r="T29" s="17">
+        <f>iferror(lookup(if(S29="",E29,S29),{0,1,10,100,1000,2000,5000,10000},{0.0,0.625,0.513,0.33,0.265,0.24,0.224,0.215}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <f>iferror(if(S29="",E29,S29)*T29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="W29" s="16">
+        <v>3721</v>
+      </c>
+      <c r="Y29" s="17">
+        <f>iferror(lookup(if(X29="",E29,X29),{0,1,10,100,500,1000,2500,10000},{0.0,0.61,0.5,0.322,0.29,0.258,0.234,0.21}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
+        <f>iferror(if(X29="",E29,X29)*Y29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>75</v>
+      </c>
+      <c r="AD29" s="17">
+        <f>iferror(lookup(if(AC29="",E29,AC29),{0,1,25},{0.0,0.5371984,0.5371984}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <f>iferror(if(AC29="",E29,AC29)*AD29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>118</v>
+      </c>
+      <c r="AI29" s="17">
+        <f>iferror(lookup(if(AH29="",E29,AH29),{0,1,3,10,50,250,1000},{0.0,0.447,0.447,0.41,0.359,0.297,0.26}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="17">
+        <f>iferror(if(AH29="",E29,AH29)*AI29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I31" s="7">
         <f>IFERROR(IF(OR(I7:I29),COUNTIF(I7:I29,"&gt;0")&amp;" of "&amp;ROWS(I7:I29)&amp;" parts purchased",""),"")</f>
@@ -2672,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:37">
       <c r="I32">
         <f t="array" ref="I32">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
         <v>0</v>
@@ -4384,6 +4569,52 @@
     <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="AG5:AK5"/>
   </mergeCells>
+  <conditionalFormatting sqref="AB29">
+    <cfRule type="cellIs" dxfId="1" priority="138" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="139" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
+      <formula>AB29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD29">
+    <cfRule type="cellIs" dxfId="4" priority="141" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="1" priority="143" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="144" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="greaterThan">
+      <formula>AG29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI29">
+    <cfRule type="cellIs" dxfId="4" priority="146" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>AND(ISBLANK(D10),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
@@ -4714,6 +4945,14 @@
       <formula>E26</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="104" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" dxfId="1" priority="93" operator="equal">
       <formula>0</formula>
@@ -4727,6 +4966,11 @@
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="greaterThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I8">
     <cfRule type="cellIs" dxfId="1" priority="95" operator="greaterThan">
       <formula>H8</formula>
@@ -4737,6 +4981,11 @@
       <formula>F26</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="4" priority="106" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="4" priority="96" operator="lessThanOrEqual">
       <formula>F8</formula>
@@ -4747,100 +4996,151 @@
       <formula>G26</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="4" priority="107" operator="lessThanOrEqual">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K8">
     <cfRule type="cellIs" dxfId="4" priority="97" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThan">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="1" priority="123" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="124" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
     <cfRule type="cellIs" dxfId="1" priority="108" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="109" operator="lessThan">
-      <formula>E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="greaterThan">
+      <formula>R17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
+      <formula>R26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="greaterThan">
+      <formula>R29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
+      <formula>R8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="cellIs" dxfId="4" priority="116" operator="lessThanOrEqual">
+      <formula>F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="4" priority="121" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="cellIs" dxfId="4" priority="126" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="cellIs" dxfId="4" priority="111" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="lessThanOrEqual">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="cellIs" dxfId="4" priority="112" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29">
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThan">
-      <formula>E26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="134" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8">
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="129" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
-      <formula>R17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="1" priority="115" operator="greaterThan">
-      <formula>R26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="1" priority="105" operator="greaterThan">
-      <formula>R8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="4" priority="111" operator="lessThanOrEqual">
-      <formula>F17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="4" priority="116" operator="lessThanOrEqual">
-      <formula>F26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="4" priority="106" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="greaterThan">
+      <formula>W29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
+      <formula>W8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="4" priority="136" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="4" priority="131" operator="lessThanOrEqual">
       <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="4" priority="112" operator="lessThanOrEqual">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="4" priority="107" operator="lessThanOrEqual">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThan">
-      <formula>E8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
-      <formula>W8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="4" priority="121" operator="lessThanOrEqual">
-      <formula>F8</formula>
+  <conditionalFormatting sqref="Z29">
+    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
+      <formula>G29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4851,8 +5151,13 @@
     <hyperlink ref="V17" r:id="rId4"/>
     <hyperlink ref="L26" r:id="rId5"/>
     <hyperlink ref="V26" r:id="rId6"/>
+    <hyperlink ref="L29" r:id="rId7"/>
+    <hyperlink ref="V29" r:id="rId8"/>
+    <hyperlink ref="AA29" r:id="rId9"/>
+    <hyperlink ref="AF29" r:id="rId10"/>
+    <hyperlink ref="AK29" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Projects/Voicemeeter/test.xlsx
+++ b/Projects/Voicemeeter/test.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'test. '!$G$1</definedName>
-    <definedName name="digikey_part_data">'test. '!$H$5:$L$29</definedName>
-    <definedName name="farnell_part_data">'test. '!$M$5:$Q$29</definedName>
-    <definedName name="global_part_data">'test. '!$A$5:$G$29</definedName>
-    <definedName name="mouser_part_data">'test. '!$R$5:$V$29</definedName>
-    <definedName name="newark_part_data">'test. '!$W$5:$AA$29</definedName>
-    <definedName name="rs_part_data">'test. '!$AB$5:$AF$29</definedName>
-    <definedName name="tme_part_data">'test. '!$AG$5:$AK$29</definedName>
+    <definedName name="digikey_part_data">'test. '!$H$5:$L$28</definedName>
+    <definedName name="farnell_part_data">'test. '!$M$5:$Q$28</definedName>
+    <definedName name="global_part_data">'test. '!$A$5:$G$28</definedName>
+    <definedName name="mouser_part_data">'test. '!$R$5:$V$28</definedName>
+    <definedName name="newark_part_data">'test. '!$W$5:$AA$28</definedName>
+    <definedName name="rs_part_data">'test. '!$AB$5:$AF$28</definedName>
+    <definedName name="tme_part_data">'test. '!$AG$5:$AK$28</definedName>
     <definedName name="TotalCost">'test. '!$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -629,6 +629,95 @@
         </r>
       </text>
     </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.24      $0.24
+    10   $0.16      $1.64
+   100   $0.09      $9.28
+   500   $0.07     $32.76
+  1000   $0.06     $57.33
+  2500   $0.05    $136.50
+  5000   $0.05    $252.55</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.08      $0.80
+   100   $0.06      $6.00
+   500   $0.05     $27.00
+  1000   $0.04     $43.00
+  2500   $0.04    $100.00
+  5000   $0.04    $195.00
+ 10000   $0.04    $350.00
+ 25000   $0.03    $850.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.05      $0.05
+  4000   $0.05    $184.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H8" authorId="0">
       <text>
         <r>
@@ -706,6 +795,89 @@
         </r>
       </text>
     </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $5.67      $5.67
+    10   $5.44     $54.41
+    25   $4.99    $124.68
+    50   $4.76    $238.03
+   100   $4.53    $453.39
+   250   $3.97    $991.80
+   500   $3.85   $1926.92
+  1000   $3.29   $3287.09
+  2500   $3.06   $7651.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $6.84      $6.84
+    10   $5.14     $51.40
+    25   $4.73    $118.25
+    50   $4.49    $224.50
+   100   $4.30    $430.00
+   250   $3.84    $960.00
+   500   $3.25   $1625.00
+  1000   $3.00   $3000.00
+  2500   $2.93   $7325.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $4.95      $4.95
+    10   $3.70     $37.00
+    25   $3.43     $85.75
+   100   $3.30    $330.00
+   250   $3.00    $750.00
+   500   $2.59   $1295.00
+  1000   $2.56   $2560.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T17" authorId="0">
       <text>
         <r>
@@ -722,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0">
+    <comment ref="H18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +907,408 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0">
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.12      $0.12
+  4000   $0.12    $487.04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.47      $0.47
+    10   $0.27      $2.73
+   100   $0.17     $16.50
+   500   $0.15     $75.50
+  1000   $0.14    $135.00
+  4000   $0.10    $400.00
+  8000   $0.09    $728.00
+ 24000   $0.09   $2136.00
+ 48000   $0.08   $3744.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.27      $0.27
+    10   $0.27      $2.66
+    25   $0.23      $5.78
+    50   $0.20      $9.80
+   100   $0.16     $16.10
+   250   $0.15     $38.50
+   500   $0.15     $73.50
+  1000   $0.13    $132.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.12      $0.12
+  4000   $0.12    $487.04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.47      $0.47
+    10   $0.27      $2.73
+   100   $0.17     $16.50
+   500   $0.15     $75.50
+  1000   $0.14    $135.00
+  4000   $0.10    $400.00
+  8000   $0.09    $728.00
+ 24000   $0.09   $2136.00
+ 48000   $0.08   $3744.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.27      $0.27
+    10   $0.27      $2.66
+    25   $0.23      $5.78
+    50   $0.20      $9.80
+   100   $0.16     $16.10
+   250   $0.15     $38.50
+   500   $0.15     $73.50
+  1000   $0.13    $132.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.12      $0.12
+  4000   $0.12    $487.04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.47      $0.47
+    10   $0.27      $2.73
+   100   $0.17     $16.50
+   500   $0.15     $75.50
+  1000   $0.14    $135.00
+  4000   $0.10    $400.00
+  8000   $0.09    $728.00
+ 24000   $0.09   $2136.00
+ 48000   $0.08   $3744.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.27      $0.27
+    10   $0.27      $2.66
+    25   $0.23      $5.78
+    50   $0.20      $9.80
+   100   $0.16     $16.10
+   250   $0.15     $38.50
+   500   $0.15     $73.50
+  1000   $0.13    $132.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.18      $1.18
+    25   $1.06     $26.50
+    50   $1.00     $49.95
+   100   $0.94     $94.40
+   500   $0.85    $425.50
+  1000   $0.84    $840.00
+  2500   $0.83   $2082.50
+  5000   $0.83   $4130.00
+ 10000   $0.82   $8240.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.63      $0.63
+  1000   $0.63    $626.94</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $4.45      $4.45
+    25   $3.58     $89.50
+    50   $2.98    $149.00
+   100   $2.70    $270.00
+   200   $2.38    $476.00
+   500   $2.30   $1150.00
+  1000   $2.20   $2200.00
+  2000   $2.08   $4160.00
+  5000   $1.75   $8750.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.68      $1.68
+    10   $1.57     $15.66
+    25   $1.48     $36.98
+    50   $1.30     $65.25
+   100   $1.07    $107.30
+   250   $1.04    $261.00
+   500   $0.99    $493.00
+  1000   $0.93    $928.00
+  5000   $0.81   $4060.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.68      $1.68
+    10   $1.48     $14.80
+    50   $1.30     $65.00
+   100   $1.11    $111.00
+   250   $1.08    $270.00
+   500   $1.05    $525.00
+  1000   $1.02   $1020.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.63      $1.63
+    10   $1.44     $14.40
+    25   $1.36     $34.00
+    50   $1.27     $63.50
+   100   $1.05    $105.00
+   500   $0.96    $478.50
+  1000   $0.90    $901.00
+  2500   $0.84   $2110.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.92      $1.92
+    75   $1.92    $144.24</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $2.01      $2.01
+    10   $1.65     $16.50
+    75   $1.29     $96.75
+   150   $1.25    $187.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +1325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="0">
+    <comment ref="T25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +1349,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0">
+    <comment ref="H27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.36      $0.36
+    10   $0.23      $2.30
+   100   $0.17     $17.40
+   500   $0.15     $75.50
+  1000   $0.12    $119.00
+  2500   $0.10    $250.00
+  5000   $0.10    $490.00
+ 10000   $0.10    $960.00
+ 25000   $0.09   $2350.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -797,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T29" authorId="0">
+    <comment ref="T28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +1442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y29" authorId="0">
+    <comment ref="Y28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD29" authorId="0">
+    <comment ref="AD28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -858,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI29" authorId="0">
+    <comment ref="AI28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -879,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0">
+    <comment ref="I30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N31" authorId="0">
+    <comment ref="N30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -905,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S31" authorId="0">
+    <comment ref="S30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X31" authorId="0">
+    <comment ref="X30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -931,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC31" authorId="0">
+    <comment ref="AC30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -944,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH31" authorId="0">
+    <comment ref="AH30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +1585,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -997,12 +1620,18 @@
     <t>Capacitors_THT:CP_Radial_D6.3mm_P2.50mm</t>
   </si>
   <si>
+    <t>227CKS025MGM</t>
+  </si>
+  <si>
     <t>C301-C322</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
+    <t>Capacitors_SMD:C_0603_HandSoldering</t>
+  </si>
+  <si>
     <t>C0603C106M8PACTU</t>
   </si>
   <si>
@@ -1066,6 +1695,9 @@
     <t>DIN-5_180degree</t>
   </si>
   <si>
+    <t>57GB5FX</t>
+  </si>
+  <si>
     <t>LED601-LED632</t>
   </si>
   <si>
@@ -1081,6 +1713,9 @@
     <t>1.5"OLED</t>
   </si>
   <si>
+    <t>MATHSTERK:OLED</t>
+  </si>
+  <si>
     <t>1431</t>
   </si>
   <si>
@@ -1099,18 +1734,12 @@
     <t>330R</t>
   </si>
   <si>
-    <t>R201-R255</t>
+    <t>R201-R255,R501-R513,R515-R518,R520,R522</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R501-R513,R515-R518,R520,R522</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>RESET501</t>
   </si>
   <si>
@@ -1126,16 +1755,13 @@
     <t>POT</t>
   </si>
   <si>
-    <t>Potentiometers:Potentiometer_Omeg_PC16PU_Horizontal</t>
+    <t>RK09D1130A1L</t>
   </si>
   <si>
     <t>RV202,RV205,RV208,RV210,RV214,RV218-RV222</t>
   </si>
   <si>
-    <t>SLIDEPOT</t>
-  </si>
-  <si>
-    <t>MATHSTERK:slidepot</t>
+    <t>RS6011YA6009</t>
   </si>
   <si>
     <t>SW501</t>
@@ -1177,12 +1803,18 @@
     <t>Housings_DIP:DIP-4_W7.62mm</t>
   </si>
   <si>
+    <t>PC817X1NSZ1B</t>
+  </si>
+  <si>
     <t>U401-U410</t>
   </si>
   <si>
     <t>74HC4051</t>
   </si>
   <si>
+    <t>Housings_DIP:DIP-16_W7.62mm_LongPads</t>
+  </si>
+  <si>
     <t>CD74HC4051E</t>
   </si>
   <si>
@@ -1198,7 +1830,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>11.05.2018 19:01:04</t>
+    <t>11.05.2018 20:27:55</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1213,7 +1845,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-05-11 19:01:31</t>
+    <t>2018-05-11 20:30:48</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -1228,15 +1860,27 @@
     <t>Cat#</t>
   </si>
   <si>
+    <t>1572-1705-ND</t>
+  </si>
+  <si>
     <t>399-14945-2-ND</t>
   </si>
   <si>
     <t>NonStk</t>
   </si>
   <si>
+    <t>SC2416-ND</t>
+  </si>
+  <si>
+    <t>PEC11R-4215F-S0024-ND</t>
+  </si>
+  <si>
     <t>MHPS2285-ND</t>
   </si>
   <si>
+    <t>PC817X1NSZ1B-ND</t>
+  </si>
+  <si>
     <t>296-12810-5-ND</t>
   </si>
   <si>
@@ -1246,28 +1890,67 @@
     <t>Mouser</t>
   </si>
   <si>
+    <t>598-227CKS025MGM</t>
+  </si>
+  <si>
     <t>80-C0603C106M8PACTU</t>
   </si>
   <si>
+    <t>502-57GB5FX</t>
+  </si>
+  <si>
     <t>485-1431</t>
   </si>
   <si>
+    <t>688-RK09D1130A1L</t>
+  </si>
+  <si>
+    <t>688-RS6011YA6009</t>
+  </si>
+  <si>
+    <t>652-PEC11R-4215F-S24</t>
+  </si>
+  <si>
     <t>642-MHPS2285</t>
   </si>
   <si>
+    <t>852-PC817X1NSZ1B</t>
+  </si>
+  <si>
     <t>595-CD74HC4051E</t>
   </si>
   <si>
     <t>Newark</t>
   </si>
   <si>
+    <t>02P4266</t>
+  </si>
+  <si>
     <t>45AC6535</t>
   </si>
   <si>
+    <t>89K7666</t>
+  </si>
+  <si>
+    <t>46Y2635</t>
+  </si>
+  <si>
     <t>64K3094</t>
   </si>
   <si>
     <t>Rs Components</t>
+  </si>
+  <si>
+    <t>2509179458</t>
+  </si>
+  <si>
+    <t>878-6917</t>
+  </si>
+  <si>
+    <t>172-7564</t>
+  </si>
+  <si>
+    <t>167-4653</t>
   </si>
   <si>
     <t>526-694</t>
@@ -1359,18 +2042,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1434,7 +2117,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1490,10 +2173,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1831,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK54"/>
+  <dimension ref="A1:AK52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
@@ -1883,13 +2566,13 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="4">
         <v>100</v>
@@ -1897,11 +2580,11 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1910,73 +2593,73 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G3" s="6">
-        <f>SUM(G7:G29)</f>
+        <f>SUM(G7:G28)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>SUM(K7:K29)</f>
+        <f>SUM(K7:K28)</f>
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <f>(ROWS(K7:K29)-COUNTBLANK(K7:K29))&amp;" of "&amp;ROWS(K7:K29)&amp;" parts found"</f>
+        <f>(ROWS(K7:K28)-COUNTBLANK(K7:K28))&amp;" of "&amp;ROWS(K7:K28)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <f>SUM(P7:P29)</f>
+        <f>SUM(P7:P28)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <f>(ROWS(P7:P29)-COUNTBLANK(P7:P29))&amp;" of "&amp;ROWS(P7:P29)&amp;" parts found"</f>
+        <f>(ROWS(P7:P28)-COUNTBLANK(P7:P28))&amp;" of "&amp;ROWS(P7:P28)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f>SUM(U7:U29)</f>
+        <f>SUM(U7:U28)</f>
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <f>(ROWS(U7:U29)-COUNTBLANK(U7:U29))&amp;" of "&amp;ROWS(U7:U29)&amp;" parts found"</f>
+        <f>(ROWS(U7:U28)-COUNTBLANK(U7:U28))&amp;" of "&amp;ROWS(U7:U28)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f>SUM(Z7:Z29)</f>
+        <f>SUM(Z7:Z28)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="7">
-        <f>(ROWS(Z7:Z29)-COUNTBLANK(Z7:Z29))&amp;" of "&amp;ROWS(Z7:Z29)&amp;" parts found"</f>
+        <f>(ROWS(Z7:Z28)-COUNTBLANK(Z7:Z28))&amp;" of "&amp;ROWS(Z7:Z28)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f>SUM(AE7:AE29)</f>
+        <f>SUM(AE7:AE28)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="7">
-        <f>(ROWS(AE7:AE29)-COUNTBLANK(AE7:AE29))&amp;" of "&amp;ROWS(AE7:AE29)&amp;" parts found"</f>
+        <f>(ROWS(AE7:AE28)-COUNTBLANK(AE7:AE28))&amp;" of "&amp;ROWS(AE7:AE28)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="6">
-        <f>SUM(AJ7:AJ29)</f>
+        <f>SUM(AJ7:AJ28)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="7">
-        <f>(ROWS(AJ7:AJ29)-COUNTBLANK(AJ7:AJ29))&amp;" of "&amp;ROWS(AJ7:AJ29)&amp;" parts found"</f>
+        <f>(ROWS(AJ7:AJ28)-COUNTBLANK(AJ7:AJ28))&amp;" of "&amp;ROWS(AJ7:AJ28)&amp;" parts found"</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1990,42 +2673,42 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -2055,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>6</v>
@@ -2067,13 +2750,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>6</v>
@@ -2082,13 +2765,13 @@
         <v>7</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>6</v>
@@ -2097,13 +2780,13 @@
         <v>7</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>6</v>
@@ -2112,13 +2795,13 @@
         <v>7</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>6</v>
@@ -2127,13 +2810,13 @@
         <v>7</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AI6" s="15" t="s">
         <v>6</v>
@@ -2142,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2155,6 +2838,9 @@
       <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="16">
         <f>BoardQty*2</f>
         <v>0</v>
@@ -2166,17 +2852,68 @@
       <c r="G7" s="17">
         <f>iferror(E7*F7,"")</f>
         <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>8062</v>
+      </c>
+      <c r="J7" s="17">
+        <f>iferror(lookup(if(I7="",E7,I7),{0,1,10,100,500,1000,2500,5000},{0.0,0.24,0.164,0.0928,0.06552,0.05733,0.0546,0.05051}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <f>iferror(if(I7="",E7,I7)*J7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="16">
+        <v>6684</v>
+      </c>
+      <c r="T7" s="17">
+        <f>iferror(lookup(if(S7="",E7,S7),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.103,0.08,0.06,0.054,0.043,0.04,0.039,0.035,0.034}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <f>iferror(if(S7="",E7,S7)*T7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="17">
+        <f>iferror(lookup(if(X7="",E7,X7),{0,1,4000},{0.0,0.046,0.046}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <f>iferror(if(X7="",E7,X7)*Y7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF7" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16">
         <f>BoardQty*22</f>
@@ -2190,8 +2927,8 @@
         <f>iferror(E8*F8,"")</f>
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>89</v>
+      <c r="H8" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="J8" s="17">
         <f>iferror(lookup(if(I8="",E8,I8),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
@@ -2201,8 +2938,8 @@
         <f>iferror(if(I8="",E8,I8)*J8,"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>88</v>
+      <c r="L8" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="R8" s="16">
         <v>67713</v>
@@ -2215,8 +2952,8 @@
         <f>iferror(if(S8="",E8,S8)*T8,"")</f>
         <v>0</v>
       </c>
-      <c r="V8" s="19" t="s">
-        <v>94</v>
+      <c r="V8" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="W8" s="16">
         <v>860</v>
@@ -2229,19 +2966,19 @@
         <f>iferror(if(X8="",E8,X8)*Y8,"")</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="19" t="s">
-        <v>99</v>
+      <c r="AA8" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="16">
         <f>BoardQty*1</f>
@@ -2258,13 +2995,13 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="16">
         <f>BoardQty*1</f>
@@ -2281,13 +3018,13 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="16">
         <f>BoardQty*2</f>
@@ -2304,13 +3041,13 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="16">
         <f>BoardQty*1</f>
@@ -2327,13 +3064,13 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16">
         <f>BoardQty*1</f>
@@ -2350,13 +3087,13 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="16">
         <f>BoardQty*1</f>
@@ -2373,10 +3110,13 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="16">
         <f>BoardQty*2</f>
@@ -2389,17 +3129,65 @@
       <c r="G15" s="17">
         <f>iferror(E15*F15,"")</f>
         <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>384</v>
+      </c>
+      <c r="J15" s="17">
+        <f>iferror(lookup(if(I15="",E15,I15),{0,1,10,25,50,100,250,500,1000,2500},{0.0,5.67,5.441,4.9872,4.7606,4.5339,3.9672,3.85384,3.28709,3.0604}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <f>iferror(if(I15="",E15,I15)*J15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="16">
+        <v>2653</v>
+      </c>
+      <c r="T15" s="17">
+        <f>iferror(lookup(if(S15="",E15,S15),{0,1,10,25,50,100,250,500,1000,2500},{0.0,6.84,5.14,4.73,4.49,4.3,3.84,3.25,3.0,2.93}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f>iferror(if(S15="",E15,S15)*T15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W15" s="16">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="17">
+        <f>iferror(lookup(if(X15="",E15,X15),{0,1,10,25,100,250,500,1000},{0.0,4.95,3.7,3.43,3.3,3.0,2.59,2.56}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <f>iferror(if(X15="",E15,X15)*Y15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF15" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E16" s="16">
         <f>BoardQty*32</f>
@@ -2416,13 +3204,16 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" s="16">
         <f>BoardQty*1</f>
@@ -2447,19 +3238,22 @@
         <f>iferror(if(S17="",E17,S17)*T17,"")</f>
         <v>0</v>
       </c>
-      <c r="V17" s="19" t="s">
-        <v>95</v>
+      <c r="V17" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="16">
         <f>BoardQty*2</f>
@@ -2472,17 +3266,62 @@
       <c r="G18" s="17">
         <f>iferror(E18*F18,"")</f>
         <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="17">
+        <f>iferror(lookup(if(I18="",E18,I18),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>iferror(if(I18="",E18,I18)*J18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="16">
+        <v>67713</v>
+      </c>
+      <c r="T18" s="17">
+        <f>iferror(lookup(if(S18="",E18,S18),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f>iferror(if(S18="",E18,S18)*T18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="W18" s="16">
+        <v>860</v>
+      </c>
+      <c r="Y18" s="17">
+        <f>iferror(lookup(if(X18="",E18,X18),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <f>iferror(if(X18="",E18,X18)*Y18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="16">
         <f>BoardQty*1</f>
@@ -2495,20 +3334,65 @@
       <c r="G19" s="17">
         <f>iferror(E19*F19,"")</f>
         <v>0</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="17">
+        <f>iferror(lookup(if(I19="",E19,I19),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f>iferror(if(I19="",E19,I19)*J19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="16">
+        <v>67713</v>
+      </c>
+      <c r="T19" s="17">
+        <f>iferror(lookup(if(S19="",E19,S19),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <f>iferror(if(S19="",E19,S19)*T19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="16">
+        <v>860</v>
+      </c>
+      <c r="Y19" s="17">
+        <f>iferror(lookup(if(X19="",E19,X19),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
+        <f>iferror(if(X19="",E19,X19)*Y19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>42</v>
+      <c r="D20" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="16">
-        <f>BoardQty*55</f>
+        <f>BoardQty*74</f>
         <v>0</v>
       </c>
       <c r="F20" s="17">
@@ -2518,20 +3402,62 @@
       <c r="G20" s="17">
         <f>iferror(E20*F20,"")</f>
         <v>0</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="17">
+        <f>iferror(lookup(if(I20="",E20,I20),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>iferror(if(I20="",E20,I20)*J20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="16">
+        <v>67713</v>
+      </c>
+      <c r="T20" s="17">
+        <f>iferror(lookup(if(S20="",E20,S20),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <f>iferror(if(S20="",E20,S20)*T20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" s="16">
+        <v>860</v>
+      </c>
+      <c r="Y20" s="17">
+        <f>iferror(lookup(if(X20="",E20,X20),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <f>iferror(if(X20="",E20,X20)*Y20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E21" s="16">
-        <f>BoardQty*19</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F21" s="17">
@@ -2545,16 +3471,16 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="E22" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*12</f>
         <v>0</v>
       </c>
       <c r="F22" s="17">
@@ -2564,20 +3490,48 @@
       <c r="G22" s="17">
         <f>iferror(E22*F22,"")</f>
         <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>1696</v>
+      </c>
+      <c r="T22" s="17">
+        <f>iferror(lookup(if(S22="",E22,S22),{0,1,25,50,100,500,1000,2500,5000,10000},{0.0,1.18,1.06,0.999,0.944,0.851,0.84,0.833,0.826,0.824}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f>iferror(if(S22="",E22,S22)*T22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>2000</v>
+      </c>
+      <c r="AD22" s="17">
+        <f>iferror(lookup(if(AC22="",E22,AC22),{0,1,1000},{0.0,0.6269392,0.6269392}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17">
+        <f>iferror(if(AC22="",E22,AC22)*AD22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="16">
-        <f>BoardQty*12</f>
+        <f>BoardQty*10</f>
         <v>0</v>
       </c>
       <c r="F23" s="17">
@@ -2587,20 +3541,37 @@
       <c r="G23" s="17">
         <f>iferror(E23*F23,"")</f>
         <v>0</v>
+      </c>
+      <c r="R23" s="16">
+        <v>691</v>
+      </c>
+      <c r="T23" s="17">
+        <f>iferror(lookup(if(S23="",E23,S23),{0,1,25,50,100,200,500,1000,2000,5000},{0.0,4.45,3.58,2.98,2.7,2.38,2.3,2.2,2.08,1.75}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <f>iferror(if(S23="",E23,S23)*T23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="E24" s="16">
-        <f>BoardQty*10</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F24" s="17">
@@ -2610,20 +3581,93 @@
       <c r="G24" s="17">
         <f>iferror(E24*F24,"")</f>
         <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2578</v>
+      </c>
+      <c r="J24" s="17">
+        <f>iferror(lookup(if(I24="",E24,I24),{0,1,10,25,50,100,250,500,1000,5000},{0.0,1.68,1.566,1.4792,1.305,1.073,1.044,0.986,0.928,0.812}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <f>iferror(if(I24="",E24,I24)*J24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1471</v>
+      </c>
+      <c r="T24" s="17">
+        <f>iferror(lookup(if(S24="",E24,S24),{0,1,10,50,100,250,500,1000},{0.0,1.68,1.48,1.3,1.11,1.08,1.05,1.02}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <f>iferror(if(S24="",E24,S24)*T24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="W24" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="17">
+        <f>iferror(lookup(if(X24="",E24,X24),{0,1,10,25,50,100,500,1000,2500},{0.0,1.63,1.44,1.36,1.27,1.05,0.957,0.901,0.844}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="17">
+        <f>iferror(if(X24="",E24,X24)*Y24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>600</v>
+      </c>
+      <c r="AD24" s="17">
+        <f>iferror(lookup(if(AC24="",E24,AC24),{0,1,75},{0.0,1.9231951999999999,1.9231951999999999}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <f>iferror(if(AC24="",E24,AC24)*AD24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>25</v>
+      </c>
+      <c r="AI24" s="17">
+        <f>iferror(lookup(if(AH24="",E24,AH24),{0,1,10,75,150},{0.0,2.01,1.65,1.29,1.25}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="17">
+        <f>iferror(if(AH24="",E24,AH24)*AI24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E25" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*55</f>
         <v>0</v>
       </c>
       <c r="F25" s="17">
@@ -2633,23 +3677,48 @@
       <c r="G25" s="17">
         <f>iferror(E25*F25,"")</f>
         <v>0</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="17">
+        <f>iferror(lookup(if(I25="",E25,I25),{0,1,2000},{0.0,0.3424,0.3424}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <f>iferror(if(I25="",E25,I25)*J25,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="16">
+        <v>1494</v>
+      </c>
+      <c r="T25" s="17">
+        <f>iferror(lookup(if(S25="",E25,S25),{0,1,25,50,100,250,500,1000,2000,5000},{0.0,0.493,0.461,0.418,0.406,0.396,0.373,0.351,0.319,0.296}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <f>iferror(if(S25="",E25,S25)*T25,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E26" s="16">
-        <f>BoardQty*55</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F26" s="17">
@@ -2659,45 +3728,20 @@
       <c r="G26" s="17">
         <f>iferror(E26*F26,"")</f>
         <v>0</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="17">
-        <f>iferror(lookup(if(I26="",E26,I26),{0,1,2000},{0.0,0.3424,0.3424}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
-        <f>iferror(if(I26="",E26,I26)*J26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="R26" s="16">
-        <v>1494</v>
-      </c>
-      <c r="T26" s="17">
-        <f>iferror(lookup(if(S26="",E26,S26),{0,1,25,50,100,250,500,1000,2000,5000},{0.0,0.493,0.461,0.418,0.406,0.396,0.373,0.351,0.319,0.296}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="17">
-        <f>iferror(if(S26="",E26,S26)*T26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="16">
         <f>BoardQty*1</f>
@@ -2710,20 +3754,43 @@
       <c r="G27" s="17">
         <f>iferror(E27*F27,"")</f>
         <v>0</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="T27" s="17">
+        <f>iferror(lookup(if(S27="",E27,S27),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.359,0.23,0.174,0.151,0.119,0.1,0.098,0.096,0.094}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="17">
+        <f>iferror(if(S27="",E27,S27)*T27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*10</f>
         <v>0</v>
       </c>
       <c r="F28" s="17">
@@ -2734,1828 +3801,1731 @@
         <f>iferror(E28*F28,"")</f>
         <v>0</v>
       </c>
+      <c r="H28" s="16">
+        <v>21859</v>
+      </c>
+      <c r="J28" s="17">
+        <f>iferror(lookup(if(I28="",E28,I28),{0,1,10,100,500,1000,1575},{0.0,0.6,0.531,0.4073,0.322,0.2576,0.2576}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <f>iferror(if(I28="",E28,I28)*J28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="16">
+        <v>6705</v>
+      </c>
+      <c r="T28" s="17">
+        <f>iferror(lookup(if(S28="",E28,S28),{0,1,10,100,1000,2000,5000,10000},{0.0,0.625,0.513,0.33,0.265,0.24,0.224,0.215}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <f>iferror(if(S28="",E28,S28)*T28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="W28" s="16">
+        <v>3721</v>
+      </c>
+      <c r="Y28" s="17">
+        <f>iferror(lookup(if(X28="",E28,X28),{0,1,10,100,500,1000,2500,10000},{0.0,0.61,0.5,0.322,0.29,0.258,0.234,0.21}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <f>iferror(if(X28="",E28,X28)*Y28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>75</v>
+      </c>
+      <c r="AD28" s="17">
+        <f>iferror(lookup(if(AC28="",E28,AC28),{0,1,25},{0.0,0.5371984,0.5371984}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <f>iferror(if(AC28="",E28,AC28)*AD28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>118</v>
+      </c>
+      <c r="AI28" s="17">
+        <f>iferror(lookup(if(AH28="",E28,AH28),{0,1,3,10,50,250,1000},{0.0,0.447,0.447,0.41,0.359,0.297,0.26}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="17">
+        <f>iferror(if(AH28="",E28,AH28)*AI28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="18" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="16">
-        <f>BoardQty*10</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <f>iferror(E29*F29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>21859</v>
-      </c>
-      <c r="J29" s="17">
-        <f>iferror(lookup(if(I29="",E29,I29),{0,1,10,100,500,1000,1575},{0.0,0.6,0.531,0.4073,0.322,0.2576,0.2576}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="17">
-        <f>iferror(if(I29="",E29,I29)*J29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="R29" s="16">
-        <v>6705</v>
-      </c>
-      <c r="T29" s="17">
-        <f>iferror(lookup(if(S29="",E29,S29),{0,1,10,100,1000,2000,5000,10000},{0.0,0.625,0.513,0.33,0.265,0.24,0.224,0.215}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="17">
-        <f>iferror(if(S29="",E29,S29)*T29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="W29" s="16">
-        <v>3721</v>
-      </c>
-      <c r="Y29" s="17">
-        <f>iferror(lookup(if(X29="",E29,X29),{0,1,10,100,500,1000,2500,10000},{0.0,0.61,0.5,0.322,0.29,0.258,0.234,0.21}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="17">
-        <f>iferror(if(X29="",E29,X29)*Y29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB29" s="16">
-        <v>75</v>
-      </c>
-      <c r="AD29" s="17">
-        <f>iferror(lookup(if(AC29="",E29,AC29),{0,1,25},{0.0,0.5371984,0.5371984}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="17">
-        <f>iferror(if(AC29="",E29,AC29)*AD29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG29" s="16">
-        <v>118</v>
-      </c>
-      <c r="AI29" s="17">
-        <f>iferror(lookup(if(AH29="",E29,AH29),{0,1,3,10,50,250,1000},{0.0,0.447,0.447,0.41,0.359,0.297,0.26}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="17">
-        <f>iferror(if(AH29="",E29,AH29)*AI29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="19" t="s">
-        <v>73</v>
+    <row r="30" spans="1:37">
+      <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="7">
+        <f>IFERROR(IF(OR(I7:I28),COUNTIF(I7:I28,"&gt;0")&amp;" of "&amp;ROWS(I7:I28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <f>IFERROR(IF(OR(N7:N28),COUNTIF(N7:N28,"&gt;0")&amp;" of "&amp;ROWS(N7:N28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <f>IFERROR(IF(OR(S7:S28),COUNTIF(S7:S28,"&gt;0")&amp;" of "&amp;ROWS(S7:S28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <f>IFERROR(IF(OR(X7:X28),COUNTIF(X7:X28,"&gt;0")&amp;" of "&amp;ROWS(X7:X28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <f>IFERROR(IF(OR(AC7:AC28),COUNTIF(AC7:AC28,"&gt;0")&amp;" of "&amp;ROWS(AC7:AC28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7">
+        <f>IFERROR(IF(OR(AH7:AH28),COUNTIF(AH7:AH28,"&gt;0")&amp;" of "&amp;ROWS(AH7:AH28)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="7">
-        <f>IFERROR(IF(OR(I7:I29),COUNTIF(I7:I29,"&gt;0")&amp;" of "&amp;ROWS(I7:I29)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <f>IFERROR(IF(OR(N7:N29),COUNTIF(N7:N29,"&gt;0")&amp;" of "&amp;ROWS(N7:N29)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <f>IFERROR(IF(OR(S7:S29),COUNTIF(S7:S29,"&gt;0")&amp;" of "&amp;ROWS(S7:S29)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <f>IFERROR(IF(OR(X7:X29),COUNTIF(X7:X29,"&gt;0")&amp;" of "&amp;ROWS(X7:X29)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7">
-        <f>IFERROR(IF(OR(AC7:AC29),COUNTIF(AC7:AC29,"&gt;0")&amp;" of "&amp;ROWS(AC7:AC29)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="7">
-        <f>IFERROR(IF(OR(AH7:AH29),COUNTIF(AH7:AH29,"&gt;0")&amp;" of "&amp;ROWS(AH7:AH29)&amp;" parts purchased",""),"")</f>
+      <c r="I31">
+        <f t="array" ref="I31">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="array" ref="J31">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="array" ref="K31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="array" ref="N31">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="array" ref="O31">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="array" ref="P31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="array" ref="S31">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="array" ref="T31">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="array" ref="U31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="array" ref="X31">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="array" ref="Y31">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="array" ref="Z31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="array" ref="AC31">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="array" ref="AD31">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="array" ref="AE31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="array" ref="AH31">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="array" ref="AI31">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <f t="array" ref="AJ31">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:37">
       <c r="I32">
-        <f t="array" ref="I32">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I32">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="array" ref="J32">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J32">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="array" ref="K32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="array" ref="N32">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N32">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="array" ref="O32">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O32">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="array" ref="P32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S32">
-        <f t="array" ref="S32">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S32">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="array" ref="T32">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T32">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U32">
-        <f t="array" ref="U32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="array" ref="X32">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X32">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="array" ref="Y32">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y32">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="array" ref="Z32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="array" ref="AC32">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC32">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="array" ref="AD32">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD32">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="array" ref="AE32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="array" ref="AH32">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH32">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI32">
-        <f t="array" ref="AI32">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI32">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ32">
-        <f t="array" ref="AJ32">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ32">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:36">
       <c r="I33">
-        <f t="array" ref="I33">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I33">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="array" ref="J33">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J33">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="array" ref="K33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="array" ref="N33">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N33">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="array" ref="O33">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O33">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="array" ref="P33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S33">
-        <f t="array" ref="S33">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S33">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="array" ref="T33">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T33">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="array" ref="U33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="array" ref="X33">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X33">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="array" ref="Y33">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y33">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z33">
-        <f t="array" ref="Z33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="array" ref="AC33">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC33">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="array" ref="AD33">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD33">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="array" ref="AE33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH33">
-        <f t="array" ref="AH33">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH33">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI33">
-        <f t="array" ref="AI33">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI33">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ33">
-        <f t="array" ref="AJ33">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ33">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:36">
       <c r="I34">
-        <f t="array" ref="I34">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I34">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="array" ref="J34">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J34">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="array" ref="K34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="array" ref="N34">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N34">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="array" ref="O34">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O34">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="array" ref="P34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S34">
-        <f t="array" ref="S34">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S34">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T34">
-        <f t="array" ref="T34">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T34">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U34">
-        <f t="array" ref="U34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="array" ref="X34">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X34">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="array" ref="Y34">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y34">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="array" ref="Z34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f t="array" ref="AC34">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC34">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="array" ref="AD34">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD34">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="array" ref="AE34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH34">
-        <f t="array" ref="AH34">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH34">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI34">
-        <f t="array" ref="AI34">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI34">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ34">
-        <f t="array" ref="AJ34">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ34">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:36">
       <c r="I35">
-        <f t="array" ref="I35">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I35">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="array" ref="J35">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J35">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="array" ref="K35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="array" ref="N35">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N35">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="array" ref="O35">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O35">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="array" ref="P35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="array" ref="S35">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S35">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="array" ref="T35">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T35">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="array" ref="U35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="array" ref="X35">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X35">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="array" ref="Y35">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y35">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="array" ref="Z35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="array" ref="AC35">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC35">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="array" ref="AD35">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD35">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="array" ref="AE35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH35">
-        <f t="array" ref="AH35">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH35">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI35">
-        <f t="array" ref="AI35">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI35">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ35">
-        <f t="array" ref="AJ35">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ35">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:36">
       <c r="I36">
-        <f t="array" ref="I36">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I36">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="array" ref="J36">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J36">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="array" ref="K36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="array" ref="N36">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N36">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="array" ref="O36">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O36">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="array" ref="P36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S36">
-        <f t="array" ref="S36">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S36">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="array" ref="T36">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T36">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="array" ref="U36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="array" ref="X36">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X36">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="array" ref="Y36">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y36">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z36">
-        <f t="array" ref="Z36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="array" ref="AC36">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC36">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="array" ref="AD36">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD36">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="array" ref="AE36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH36">
-        <f t="array" ref="AH36">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH36">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI36">
-        <f t="array" ref="AI36">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI36">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ36">
-        <f t="array" ref="AJ36">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ36">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:36">
       <c r="I37">
-        <f t="array" ref="I37">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I37">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="array" ref="J37">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J37">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="array" ref="K37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="array" ref="N37">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N37">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="array" ref="O37">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O37">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="array" ref="P37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="array" ref="S37">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S37">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="array" ref="T37">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T37">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U37">
-        <f t="array" ref="U37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="array" ref="X37">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X37">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="array" ref="Y37">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y37">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z37">
-        <f t="array" ref="Z37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="array" ref="AC37">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC37">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="array" ref="AD37">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD37">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="array" ref="AE37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH37">
-        <f t="array" ref="AH37">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH37">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI37">
-        <f t="array" ref="AI37">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI37">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ37">
-        <f t="array" ref="AJ37">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ37">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:36">
       <c r="I38">
-        <f t="array" ref="I38">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I38">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="array" ref="J38">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J38">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="array" ref="K38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="array" ref="N38">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N38">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="array" ref="O38">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O38">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="array" ref="P38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="array" ref="S38">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S38">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T38">
-        <f t="array" ref="T38">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T38">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="array" ref="U38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="array" ref="X38">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X38">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="array" ref="Y38">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y38">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="array" ref="Z38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="array" ref="AC38">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC38">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f t="array" ref="AD38">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD38">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f t="array" ref="AE38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH38">
-        <f t="array" ref="AH38">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH38">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI38">
-        <f t="array" ref="AI38">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI38">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ38">
-        <f t="array" ref="AJ38">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ38">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:36">
       <c r="I39">
-        <f t="array" ref="I39">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I39">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="array" ref="J39">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J39">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="array" ref="K39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="array" ref="N39">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N39">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="array" ref="O39">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O39">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="array" ref="P39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="array" ref="T39">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T39">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="array" ref="U39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="array" ref="X39">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X39">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="array" ref="Y39">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y39">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="array" ref="Z39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC39">
-        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD39">
-        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH39">
-        <f t="array" ref="AH39">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH39">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI39">
-        <f t="array" ref="AI39">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI39">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ39">
-        <f t="array" ref="AJ39">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ39">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="9:36">
       <c r="I40">
-        <f t="array" ref="I40">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I40">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="array" ref="J40">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J40">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="array" ref="K40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="array" ref="N40">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N40">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="array" ref="O40">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O40">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="array" ref="P40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T40">
-        <f t="array" ref="T40">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T40">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="array" ref="U40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="array" ref="X40">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X40">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="array" ref="Y40">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y40">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="array" ref="Z40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH40">
-        <f t="array" ref="AH40">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH40">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="array" ref="AI40">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI40">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ40">
-        <f t="array" ref="AJ40">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:36">
       <c r="I41">
-        <f t="array" ref="I41">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I41">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="array" ref="J41">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J41">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="array" ref="N41">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N41">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="array" ref="O41">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O41">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="array" ref="T41">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T41">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="array" ref="X41">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X41">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="array" ref="Y41">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y41">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH41">
-        <f t="array" ref="AH41">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH41">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="array" ref="AI41">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI41">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:36">
       <c r="I42">
-        <f t="array" ref="I42">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I42">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="array" ref="J42">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J42">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="array" ref="N42">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N42">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="array" ref="O42">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O42">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="array" ref="T42">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T42">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="array" ref="X42">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X42">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="array" ref="Y42">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y42">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH42">
-        <f t="array" ref="AH42">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH42">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="array" ref="AI42">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI42">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="9:36">
       <c r="I43">
-        <f t="array" ref="I43">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I43">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="array" ref="J43">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J43">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="array" ref="N43">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N43">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="array" ref="O43">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O43">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="array" ref="T43">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T43">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="array" ref="X43">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X43">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="array" ref="Y43">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y43">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH43">
-        <f t="array" ref="AH43">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH43">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="array" ref="AI43">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI43">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="9:36">
       <c r="I44">
-        <f t="array" ref="I44">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I44">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="array" ref="J44">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J44">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="array" ref="N44">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N44">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="array" ref="O44">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O44">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="array" ref="T44">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T44">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="array" ref="X44">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X44">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="array" ref="Y44">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y44">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH44">
-        <f t="array" ref="AH44">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH44">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="array" ref="AI44">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI44">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="9:36">
       <c r="I45">
-        <f t="array" ref="I45">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I45">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="array" ref="J45">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J45">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="array" ref="N45">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N45">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="array" ref="O45">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O45">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="array" ref="T45">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T45">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="array" ref="X45">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X45">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="array" ref="Y45">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y45">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH45">
-        <f t="array" ref="AH45">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH45">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="array" ref="AI45">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI45">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="9:36">
       <c r="I46">
-        <f t="array" ref="I46">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I46">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="array" ref="J46">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J46">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="array" ref="N46">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N46">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="array" ref="O46">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O46">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="array" ref="T46">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T46">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="array" ref="X46">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X46">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="array" ref="Y46">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y46">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH46">
-        <f t="array" ref="AH46">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH46">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="array" ref="AI46">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI46">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="9:36">
       <c r="I47">
-        <f t="array" ref="I47">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I47">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="array" ref="J47">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J47">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="array" ref="N47">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N47">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="array" ref="O47">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O47">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="array" ref="T47">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T47">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="array" ref="X47">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X47">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="array" ref="Y47">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y47">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH47">
-        <f t="array" ref="AH47">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH47">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="array" ref="AI47">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI47">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="9:36">
       <c r="I48">
-        <f t="array" ref="I48">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I48">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="array" ref="J48">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J48">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="array" ref="N48">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N48">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="array" ref="O48">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O48">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="array" ref="T48">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T48">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="array" ref="X48">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X48">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="array" ref="Y48">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y48">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH48">
-        <f t="array" ref="AH48">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH48">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="array" ref="AI48">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI48">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="9:36">
       <c r="I49">
-        <f t="array" ref="I49">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I49">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="array" ref="J49">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J49">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="array" ref="N49">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N49">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="array" ref="O49">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O49">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="array" ref="T49">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T49">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="array" ref="X49">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X49">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="array" ref="Y49">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y49">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH49">
-        <f t="array" ref="AH49">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH49">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="array" ref="AI49">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI49">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="9:36">
       <c r="I50">
-        <f t="array" ref="I50">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I50">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="array" ref="J50">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J50">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="array" ref="N50">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N50">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="array" ref="O50">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O50">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="array" ref="T50">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T50">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="array" ref="X50">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X50">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="array" ref="Y50">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y50">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="array" ref="AH50">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH50">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="array" ref="AI50">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI50">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="9:36">
       <c r="I51">
-        <f t="array" ref="I51">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I51">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="array" ref="J51">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J51">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="array" ref="N51">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N51">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="array" ref="O51">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O51">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="array" ref="T51">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T51">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="array" ref="X51">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X51">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="array" ref="Y51">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y51">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="array" ref="AH51">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH51">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="array" ref="AI51">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI51">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="9:36">
       <c r="I52">
-        <f t="array" ref="I52">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I52">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="array" ref="J52">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="J52">IFERROR(CONCATENATE((INDEX($L$7:$L$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($L$7:$L$28&lt;&gt;"",IF($I$7:$I$28&lt;&gt;"",ROW($I$7:$I$28)-MIN(ROW($I$7:$I$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="array" ref="N52">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="N52">IFERROR(CONCATENATE((INDEX($Q$7:$Q$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="array" ref="O52">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O52">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($Q$7:$Q$28&lt;&gt;"",IF($N$7:$N$28&lt;&gt;"",ROW($N$7:$N$28)-MIN(ROW($N$7:$N$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($V$7:$V$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="array" ref="T52">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T52">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($V$7:$V$28&lt;&gt;"",IF($S$7:$S$28&lt;&gt;"",ROW($S$7:$S$28)-MIN(ROW($S$7:$S$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="array" ref="X52">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
+        <f t="array" ref="X52">IFERROR(CONCATENATE((INDEX($AA$7:$AA$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="array" ref="Y52">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y52">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AA$7:$AA$28&lt;&gt;"",IF($X$7:$X$28&lt;&gt;"",ROW($X$7:$X$28)-MIN(ROW($X$7:$X$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AF$7:$AF$28&lt;&gt;"",IF($AC$7:$AC$28&lt;&gt;"",ROW($AC$7:$AC$28)-MIN(ROW($AC$7:$AC$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH52">
-        <f t="array" ref="AH52">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
+        <f t="array" ref="AH52">IFERROR(CONCATENATE((INDEX($AK$7:$AK$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI52">
-        <f t="array" ref="AI52">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI52">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:36">
-      <c r="I53">
-        <f t="array" ref="I53">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="array" ref="J53">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f t="array" ref="N53">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f t="array" ref="O53">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f t="array" ref="P53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="array" ref="T53">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <f t="array" ref="U53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <f t="array" ref="X53">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <f t="array" ref="Y53">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <f t="array" ref="Z53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <f t="array" ref="AH53">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <f t="array" ref="AI53">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:36">
-      <c r="I54">
-        <f t="array" ref="I54">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f t="array" ref="J54">IFERROR(CONCATENATE((INDEX($L$7:$L$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($L$7:$L$29&lt;&gt;"",IF($I$7:$I$29&lt;&gt;"",ROW($I$7:$I$29)-MIN(ROW($I$7:$I$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f t="array" ref="N54">IFERROR(CONCATENATE((INDEX($Q$7:$Q$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="array" ref="O54">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f t="array" ref="P54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($Q$7:$Q$29&lt;&gt;"",IF($N$7:$N$29&lt;&gt;"",ROW($N$7:$N$29)-MIN(ROW($N$7:$N$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($V$7:$V$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="array" ref="T54">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f t="array" ref="U54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($V$7:$V$29&lt;&gt;"",IF($S$7:$S$29&lt;&gt;"",ROW($S$7:$S$29)-MIN(ROW($S$7:$S$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <f t="array" ref="X54">IFERROR(CONCATENATE((INDEX($AA$7:$AA$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <f t="array" ref="Y54">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <f t="array" ref="Z54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AA$7:$AA$29&lt;&gt;"",IF($X$7:$X$29&lt;&gt;"",ROW($X$7:$X$29)-MIN(ROW($X$7:$X$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AF$7:$AF$29&lt;&gt;"",IF($AC$7:$AC$29&lt;&gt;"",ROW($AC$7:$AC$29)-MIN(ROW($AC$7:$AC$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <f t="array" ref="AH54">IFERROR(CONCATENATE((INDEX($AK$7:$AK$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <f t="array" ref="AI54">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE((INDEX($A$7:$A$29,SMALL(IF($AK$7:$AK$29&lt;&gt;"",IF($AH$7:$AH$29&lt;&gt;"",ROW($AH$7:$AH$29)-MIN(ROW($AH$7:$AH$29))+1,""),""),ROW()-ROW(A$32)+1))),),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($A$7:$A$28,SMALL(IF($AK$7:$AK$28&lt;&gt;"",IF($AH$7:$AH$28&lt;&gt;"",ROW($AH$7:$AH$28)-MIN(ROW($AH$7:$AH$28))+1,""),""),ROW()-ROW(A$31)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -4569,50 +5539,119 @@
     <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="AG5:AK5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB29">
-    <cfRule type="cellIs" dxfId="1" priority="138" operator="equal">
+  <conditionalFormatting sqref="AB22">
+    <cfRule type="cellIs" dxfId="1" priority="239" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="139" operator="lessThan">
-      <formula>E29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
-      <formula>AB29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
-    <cfRule type="cellIs" dxfId="4" priority="141" operator="lessThanOrEqual">
-      <formula>F29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
-      <formula>G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="1" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="240" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24">
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="144" operator="lessThan">
-      <formula>E29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="1" priority="145" operator="greaterThan">
-      <formula>AG29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI29">
-    <cfRule type="cellIs" dxfId="4" priority="146" operator="lessThanOrEqual">
-      <formula>F29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
-      <formula>G29</formula>
+    <cfRule type="cellIs" dxfId="2" priority="245" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB28">
+    <cfRule type="cellIs" dxfId="1" priority="249" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="250" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22">
+    <cfRule type="cellIs" dxfId="1" priority="241" operator="greaterThan">
+      <formula>AB22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="cellIs" dxfId="1" priority="246" operator="greaterThan">
+      <formula>AB24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC28">
+    <cfRule type="cellIs" dxfId="1" priority="251" operator="greaterThan">
+      <formula>AB28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22">
+    <cfRule type="cellIs" dxfId="4" priority="242" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD28">
+    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="4" priority="243" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="4" priority="248" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="4" priority="253" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="1" priority="254" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="255" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="1" priority="259" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="260" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="1" priority="256" operator="greaterThan">
+      <formula>AG24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="1" priority="261" operator="greaterThan">
+      <formula>AG28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI24">
+    <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI28">
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="4" priority="258" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="4" priority="263" operator="lessThanOrEqual">
+      <formula>G28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
@@ -4881,20 +5920,6 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="0" priority="89">
-      <formula>AND(ISBLANK(D29),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="91" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="92" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK(D7),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
@@ -4937,227 +5962,737 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="1" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="lessThan">
-      <formula>E26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="1" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="100" operator="lessThan">
+      <formula>E15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="104" operator="lessThan">
-      <formula>E29</formula>
+    <cfRule type="cellIs" dxfId="2" priority="105" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="1" priority="109" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="110" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="1" priority="114" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="115" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="1" priority="119" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="120" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="1" priority="124" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="125" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="1" priority="129" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="130" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="90" operator="lessThan">
+      <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="1" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="95" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="greaterThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="1" priority="105" operator="greaterThan">
-      <formula>H29</formula>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="1" priority="101" operator="greaterThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="1" priority="106" operator="greaterThan">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="1" priority="111" operator="greaterThan">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="greaterThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="1" priority="121" operator="greaterThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="1" priority="126" operator="greaterThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="1" priority="131" operator="greaterThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="1" priority="91" operator="greaterThan">
+      <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="1" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="greaterThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="4" priority="101" operator="lessThanOrEqual">
-      <formula>F26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="4" priority="106" operator="lessThanOrEqual">
-      <formula>F29</formula>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="4" priority="102" operator="lessThanOrEqual">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="4" priority="107" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="4" priority="112" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="4" priority="92" operator="lessThanOrEqual">
+      <formula>F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="4" priority="96" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="97" operator="lessThanOrEqual">
       <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="4" priority="102" operator="lessThanOrEqual">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="4" priority="107" operator="lessThanOrEqual">
-      <formula>G29</formula>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="4" priority="103" operator="lessThanOrEqual">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="4" priority="108" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="4" priority="113" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="4" priority="123" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="4" priority="128" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" dxfId="4" priority="133" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="4" priority="93" operator="lessThanOrEqual">
+      <formula>G7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="4" priority="97" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="1" priority="144" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="145" operator="lessThan">
+      <formula>E15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="1" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="lessThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="118" operator="equal">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThan">
-      <formula>E26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="1" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="155" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="124" operator="lessThan">
-      <formula>E29</formula>
+    <cfRule type="cellIs" dxfId="2" priority="160" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="1" priority="164" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="170" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="1" priority="174" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="175" operator="lessThan">
+      <formula>E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="180" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="185" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1" priority="189" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="190" operator="lessThan">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="135" operator="lessThan">
+      <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="1" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="109" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="140" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="cellIs" dxfId="1" priority="146" operator="greaterThan">
+      <formula>R15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="1" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="151" operator="greaterThan">
       <formula>R17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
-      <formula>R26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="1" priority="125" operator="greaterThan">
-      <formula>R29</formula>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="1" priority="156" operator="greaterThan">
+      <formula>R18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="cellIs" dxfId="1" priority="161" operator="greaterThan">
+      <formula>R19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="cellIs" dxfId="1" priority="166" operator="greaterThan">
+      <formula>R20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="1" priority="171" operator="greaterThan">
+      <formula>R22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="greaterThan">
+      <formula>R23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
+      <formula>R24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="cellIs" dxfId="1" priority="186" operator="greaterThan">
+      <formula>R25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="1" priority="191" operator="greaterThan">
+      <formula>R27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="1" priority="196" operator="greaterThan">
+      <formula>R28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
+      <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="141" operator="greaterThan">
       <formula>R8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="4" priority="116" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="lessThanOrEqual">
       <formula>F17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="4" priority="121" operator="lessThanOrEqual">
-      <formula>F26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T29">
-    <cfRule type="cellIs" dxfId="4" priority="126" operator="lessThanOrEqual">
-      <formula>F29</formula>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="4" priority="157" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="4" priority="162" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="cellIs" dxfId="4" priority="167" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="4" priority="172" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="4" priority="177" operator="lessThanOrEqual">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="cellIs" dxfId="4" priority="182" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="cellIs" dxfId="4" priority="187" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="4" priority="192" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="4" priority="197" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
+      <formula>F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="4" priority="111" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
       <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U15">
+    <cfRule type="cellIs" dxfId="4" priority="148" operator="lessThanOrEqual">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="4" priority="117" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="153" operator="lessThanOrEqual">
       <formula>G17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="4" priority="122" operator="lessThanOrEqual">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="4" priority="127" operator="lessThanOrEqual">
-      <formula>G29</formula>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="4" priority="158" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="cellIs" dxfId="4" priority="163" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="4" priority="168" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="cellIs" dxfId="4" priority="173" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="cellIs" dxfId="4" priority="138" operator="lessThanOrEqual">
+      <formula>G7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="4" priority="112" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="1" priority="133" operator="equal">
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="1" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="134" operator="lessThan">
-      <formula>E29</formula>
+    <cfRule type="cellIs" dxfId="2" priority="210" operator="lessThan">
+      <formula>E15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="cellIs" dxfId="1" priority="214" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="215" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="cellIs" dxfId="1" priority="219" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="220" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="225" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="230" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
+    <cfRule type="cellIs" dxfId="1" priority="234" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="235" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="200" operator="lessThan">
+      <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="129" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="205" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="1" priority="135" operator="greaterThan">
-      <formula>W29</formula>
+  <conditionalFormatting sqref="X15">
+    <cfRule type="cellIs" dxfId="1" priority="211" operator="greaterThan">
+      <formula>W15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="1" priority="216" operator="greaterThan">
+      <formula>W18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="1" priority="221" operator="greaterThan">
+      <formula>W19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="cellIs" dxfId="1" priority="226" operator="greaterThan">
+      <formula>W20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="1" priority="231" operator="greaterThan">
+      <formula>W24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="1" priority="236" operator="greaterThan">
+      <formula>W28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="1" priority="201" operator="greaterThan">
+      <formula>W7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="206" operator="greaterThan">
       <formula>W8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="4" priority="136" operator="lessThanOrEqual">
-      <formula>F29</formula>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="cellIs" dxfId="4" priority="212" operator="lessThanOrEqual">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18">
+    <cfRule type="cellIs" dxfId="4" priority="217" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
+    <cfRule type="cellIs" dxfId="4" priority="222" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="cellIs" dxfId="4" priority="227" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="4" priority="232" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="4" priority="237" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="4" priority="202" operator="lessThanOrEqual">
+      <formula>F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="4" priority="131" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="207" operator="lessThanOrEqual">
       <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29">
-    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
-      <formula>G29</formula>
+  <conditionalFormatting sqref="Z15">
+    <cfRule type="cellIs" dxfId="4" priority="213" operator="lessThanOrEqual">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
+    <cfRule type="cellIs" dxfId="4" priority="218" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
+    <cfRule type="cellIs" dxfId="4" priority="223" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20">
+    <cfRule type="cellIs" dxfId="4" priority="228" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24">
+    <cfRule type="cellIs" dxfId="4" priority="233" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z28">
+    <cfRule type="cellIs" dxfId="4" priority="238" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
+      <formula>G7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="208" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1"/>
-    <hyperlink ref="V8" r:id="rId2"/>
-    <hyperlink ref="AA8" r:id="rId3"/>
-    <hyperlink ref="V17" r:id="rId4"/>
-    <hyperlink ref="L26" r:id="rId5"/>
-    <hyperlink ref="V26" r:id="rId6"/>
-    <hyperlink ref="L29" r:id="rId7"/>
-    <hyperlink ref="V29" r:id="rId8"/>
-    <hyperlink ref="AA29" r:id="rId9"/>
-    <hyperlink ref="AF29" r:id="rId10"/>
-    <hyperlink ref="AK29" r:id="rId11"/>
+    <hyperlink ref="L7" r:id="rId1"/>
+    <hyperlink ref="V7" r:id="rId2"/>
+    <hyperlink ref="AA7" r:id="rId3"/>
+    <hyperlink ref="AF7" r:id="rId4"/>
+    <hyperlink ref="L8" r:id="rId5"/>
+    <hyperlink ref="V8" r:id="rId6"/>
+    <hyperlink ref="AA8" r:id="rId7"/>
+    <hyperlink ref="L15" r:id="rId8"/>
+    <hyperlink ref="V15" r:id="rId9"/>
+    <hyperlink ref="AA15" r:id="rId10"/>
+    <hyperlink ref="AF15" r:id="rId11"/>
+    <hyperlink ref="V17" r:id="rId12"/>
+    <hyperlink ref="L18" r:id="rId13"/>
+    <hyperlink ref="V18" r:id="rId14"/>
+    <hyperlink ref="AA18" r:id="rId15"/>
+    <hyperlink ref="L19" r:id="rId16"/>
+    <hyperlink ref="V19" r:id="rId17"/>
+    <hyperlink ref="AA19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="V20" r:id="rId20"/>
+    <hyperlink ref="AA20" r:id="rId21"/>
+    <hyperlink ref="V22" r:id="rId22"/>
+    <hyperlink ref="AF22" r:id="rId23"/>
+    <hyperlink ref="V23" r:id="rId24"/>
+    <hyperlink ref="L24" r:id="rId25"/>
+    <hyperlink ref="V24" r:id="rId26"/>
+    <hyperlink ref="AA24" r:id="rId27"/>
+    <hyperlink ref="AF24" r:id="rId28"/>
+    <hyperlink ref="AK24" r:id="rId29"/>
+    <hyperlink ref="L25" r:id="rId30"/>
+    <hyperlink ref="V25" r:id="rId31"/>
+    <hyperlink ref="L27" r:id="rId32"/>
+    <hyperlink ref="V27" r:id="rId33"/>
+    <hyperlink ref="L28" r:id="rId34"/>
+    <hyperlink ref="V28" r:id="rId35"/>
+    <hyperlink ref="AA28" r:id="rId36"/>
+    <hyperlink ref="AF28" r:id="rId37"/>
+    <hyperlink ref="AK28" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/Projects/Voicemeeter/test.xlsx
+++ b/Projects/Voicemeeter/test.xlsx
@@ -772,6 +772,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y8" authorId="0">
       <text>
         <r>
@@ -916,6 +929,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y18" authorId="0">
       <text>
         <r>
@@ -1011,6 +1037,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y19" authorId="0">
       <text>
         <r>
@@ -1088,6 +1127,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y20" authorId="0">
       <text>
         <r>
@@ -1165,6 +1217,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y21" authorId="0">
       <text>
         <r>
@@ -1212,23 +1277,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.63      $0.63
-  1000   $0.63    $626.94</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="T23" authorId="0">
       <text>
         <r>
@@ -1334,10 +1382,10 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $2.03      $2.03
-    10   $1.67     $16.70
-    75   $1.31     $98.25
-   150   $1.26    $189.00</t>
+     1   $1.98      $1.98
+    10   $1.63     $16.30
+    75   $1.28     $96.00
+   150   $1.23    $184.50</t>
         </r>
       </text>
     </comment>
@@ -1408,20 +1456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T27" authorId="0">
+    <comment ref="J27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1433,15 +1468,45 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.36      $0.36
-    10   $0.23      $2.30
-   100   $0.17     $17.40
-   500   $0.15     $75.50
-  1000   $0.12    $119.00
-  2500   $0.10    $250.00
-  5000   $0.10    $490.00
- 10000   $0.10    $960.00
- 25000   $0.09   $2350.00</t>
+     1   $0.17      $0.17
+  5000   $0.17    $875.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.64      $0.64
+    10   $0.41      $4.09
+   100   $0.31     $31.00
+   500   $0.27    $134.50
+  1000   $0.21    $213.00
+  2500   $0.18    $450.00
+  5000   $0.17    $870.00
+ 10000   $0.17   $1710.00
+ 25000   $0.17   $4200.00</t>
         </r>
       </text>
     </comment>
@@ -1631,7 +1696,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1687,7 +1752,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>Diodes_THT:D_DO-41_SOD81_P12.70mm_Horizontal</t>
+    <t>Diodes_THT:D_DO-41_SOD81_P7.62mm_Horizontal</t>
   </si>
   <si>
     <t>J1</t>
@@ -1696,7 +1761,7 @@
     <t>Screw_Terminal_01x02</t>
   </si>
   <si>
-    <t>Connectors_Terminal_Blocks:TerminalBlock_bornier-2_P5.08mm</t>
+    <t>Connectors_Molex:Molex_Sabre_43160-0X02_02x7.49mm_Vertical</t>
   </si>
   <si>
     <t>J501</t>
@@ -1771,6 +1836,9 @@
     <t>IRM-45</t>
   </si>
   <si>
+    <t>MATHSTERK:IRM-45</t>
+  </si>
+  <si>
     <t>IRM-45-5</t>
   </si>
   <si>
@@ -1882,7 +1950,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>15.05.2018 23:21:43</t>
+    <t>22.05.2018 17:58:27</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1897,7 +1965,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-05-15 23:22:18</t>
+    <t>2018-05-22 17:58:57</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -2008,7 +2076,7 @@
     <t>135-8955</t>
   </si>
   <si>
-    <t>172-7564</t>
+    <t>729-3644</t>
   </si>
   <si>
     <t>737-7748</t>
@@ -2627,13 +2695,13 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4">
         <v>100</v>
@@ -2641,11 +2709,11 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="5">
         <f>TotalCost/BoardQty</f>
@@ -2654,13 +2722,13 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="6">
         <f>SUM(G7:G28)</f>
@@ -2717,10 +2785,10 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2734,42 +2802,42 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
@@ -2799,10 +2867,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>6</v>
@@ -2811,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>6</v>
@@ -2826,13 +2894,13 @@
         <v>7</v>
       </c>
       <c r="Q6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>6</v>
@@ -2841,13 +2909,13 @@
         <v>7</v>
       </c>
       <c r="V6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>6</v>
@@ -2856,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="AA6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>6</v>
@@ -2871,13 +2939,13 @@
         <v>7</v>
       </c>
       <c r="AF6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="AG6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH6" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="AI6" s="15" t="s">
         <v>6</v>
@@ -2886,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2915,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16">
-        <v>8062</v>
+        <v>8059</v>
       </c>
       <c r="J7" s="17">
         <f>iferror(lookup(if(I7="",E7,I7),{0,1,10,100,500,1000,2500,5000},{0.0,0.24,0.164,0.0928,0.06552,0.05733,0.0546,0.05051}),"")</f>
@@ -2926,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R7" s="16">
-        <v>6574</v>
+        <v>6331</v>
       </c>
       <c r="T7" s="17">
         <f>iferror(lookup(if(S7="",E7,S7),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.103,0.08,0.06,0.054,0.043,0.04,0.039,0.035,0.034}),"")</f>
@@ -2940,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y7" s="17">
         <f>iferror(lookup(if(X7="",E7,X7),{0,1,4000},{0.0,0.046,0.046}),"")</f>
@@ -2954,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB7" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -2989,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" s="17">
         <f>iferror(lookup(if(I8="",E8,I8),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
@@ -3000,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R8" s="16">
-        <v>64322</v>
+        <v>8104</v>
       </c>
       <c r="T8" s="17">
         <f>iferror(lookup(if(S8="",E8,S8),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
@@ -3014,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" s="16">
-        <v>820</v>
+        <v>105</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="Y8" s="17">
         <f>iferror(lookup(if(X8="",E8,X8),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
@@ -3028,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -3180,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R14" s="16">
-        <v>2553</v>
+        <v>1231</v>
       </c>
       <c r="T14" s="17">
         <f>iferror(lookup(if(S14="",E14,S14),{0,1,10,25,50,100,250,500,1000,2500},{0.0,6.84,5.14,4.73,4.49,4.3,3.84,3.25,3.0,2.93}),"")</f>
@@ -3194,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W14" s="16">
         <v>86</v>
@@ -3208,13 +3276,13 @@
         <v>0</v>
       </c>
       <c r="AA14" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF14" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -3289,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T17" s="17">
         <f>iferror(lookup(if(S17="",E17,S17),{0,1},{0.0,40.95}),"")</f>
@@ -3300,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -3310,8 +3378,11 @@
       <c r="B18" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="16">
         <f>BoardQty*1</f>
@@ -3337,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="W18" s="16">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="Y18" s="17">
         <f>iferror(lookup(if(X18="",E18,X18),{0,1,10,25,50,100,250,500},{0.0,13.5,13.23,12.97,12.73,12.49,12.26,12.04}),"")</f>
@@ -3351,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AB18" s="16">
         <v>2</v>
       </c>
       <c r="AF18" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG18" s="16">
         <v>3</v>
@@ -3371,18 +3442,18 @@
         <v>0</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>15</v>
@@ -3400,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J19" s="17">
         <f>iferror(lookup(if(I19="",E19,I19),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
@@ -3411,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R19" s="16">
-        <v>64322</v>
+        <v>8104</v>
       </c>
       <c r="T19" s="17">
         <f>iferror(lookup(if(S19="",E19,S19),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
@@ -3425,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="W19" s="16">
-        <v>820</v>
+        <v>105</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="Y19" s="17">
         <f>iferror(lookup(if(X19="",E19,X19),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
@@ -3439,18 +3510,18 @@
         <v>0</v>
       </c>
       <c r="AA19" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>15</v>
@@ -3468,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J20" s="17">
         <f>iferror(lookup(if(I20="",E20,I20),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
@@ -3479,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R20" s="16">
-        <v>64322</v>
+        <v>8104</v>
       </c>
       <c r="T20" s="17">
         <f>iferror(lookup(if(S20="",E20,S20),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
@@ -3493,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="W20" s="16">
-        <v>820</v>
+        <v>105</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="Y20" s="17">
         <f>iferror(lookup(if(X20="",E20,X20),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
@@ -3507,18 +3578,18 @@
         <v>0</v>
       </c>
       <c r="AA20" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>15</v>
@@ -3536,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J21" s="17">
         <f>iferror(lookup(if(I21="",E21,I21),{0,1,4000},{0.0,0.12176,0.12176}),"")</f>
@@ -3547,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R21" s="16">
-        <v>64322</v>
+        <v>8104</v>
       </c>
       <c r="T21" s="17">
         <f>iferror(lookup(if(S21="",E21,S21),{0,1,10,100,500,1000,4000,8000,24000,48000},{0.0,0.471,0.273,0.165,0.151,0.135,0.1,0.091,0.089,0.078}),"")</f>
@@ -3561,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="W21" s="16">
-        <v>820</v>
+        <v>105</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="Y21" s="17">
         <f>iferror(lookup(if(X21="",E21,X21),{0,1,10,25,50,100,250,500,1000},{0.0,0.266,0.266,0.231,0.196,0.161,0.154,0.147,0.132}),"")</f>
@@ -3575,21 +3646,21 @@
         <v>0</v>
       </c>
       <c r="AA21" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="16">
         <f>BoardQty*12</f>
@@ -3604,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="16">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="T22" s="17">
         <f>iferror(lookup(if(S22="",E22,S22),{0,1,25,50,100,500,1000,2500,5000,10000},{0.0,1.18,1.06,0.999,0.944,0.851,0.84,0.833,0.826,0.824}),"")</f>
@@ -3615,35 +3686,27 @@
         <v>0</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB22" s="16">
-        <v>2000</v>
-      </c>
-      <c r="AD22" s="17">
-        <f>iferror(lookup(if(AC22="",E22,AC22),{0,1,1000},{0.0,0.6269392,0.6269392}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="17">
-        <f>iferror(if(AC22="",E22,AC22)*AD22,"")</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AF22" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="16">
         <f>BoardQty*10</f>
@@ -3658,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="16">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="T23" s="17">
         <f>iferror(lookup(if(S23="",E23,S23),{0,1,25,50,100,200,500,1000,2000,5000},{0.0,4.45,3.58,2.98,2.7,2.38,2.3,2.2,2.08,1.75}),"")</f>
@@ -3669,21 +3732,21 @@
         <v>0</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="E24" s="16">
         <f>BoardQty*1</f>
@@ -3698,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="16">
-        <v>2571</v>
+        <v>2562</v>
       </c>
       <c r="J24" s="17">
         <f>iferror(lookup(if(I24="",E24,I24),{0,1,10,25,50,100,250,500,1000,5000},{0.0,1.68,1.566,1.4792,1.305,1.073,1.044,0.986,0.928,0.812}),"")</f>
@@ -3709,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R24" s="16">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="T24" s="17">
         <f>iferror(lookup(if(S24="",E24,S24),{0,1,10,50,100,250,500,1000},{0.0,1.68,1.48,1.3,1.11,1.08,1.05,1.02}),"")</f>
@@ -3723,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W24" s="16">
         <v>5</v>
@@ -3737,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="AA24" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB24" s="16">
         <v>70</v>
       </c>
       <c r="AF24" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI24" s="17">
-        <f>iferror(lookup(if(AH24="",E24,AH24),{0,1,10,75,150},{0.0,2.03,1.67,1.31,1.26}),"")</f>
+        <f>iferror(lookup(if(AH24="",E24,AH24),{0,1,10,75,150},{0.0,1.98,1.63,1.28,1.23}),"")</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="17">
@@ -3757,21 +3820,21 @@
         <v>0</v>
       </c>
       <c r="AK24" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="16">
         <f>BoardQty*55</f>
@@ -3786,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="17">
         <f>iferror(lookup(if(I25="",E25,I25),{0,1,2000},{0.0,0.3424,0.3424}),"")</f>
@@ -3797,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R25" s="16">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="T25" s="17">
         <f>iferror(lookup(if(S25="",E25,S25),{0,1,25,50,100,250,500,1000,2000,5000},{0.0,0.493,0.461,0.418,0.406,0.396,0.373,0.351,0.319,0.296}),"")</f>
@@ -3811,18 +3874,18 @@
         <v>0</v>
       </c>
       <c r="V25" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="16">
         <f>BoardQty*1</f>
@@ -3839,16 +3902,16 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="16">
         <f>BoardQty*1</f>
@@ -3863,16 +3926,24 @@
         <v>0</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="J27" s="17">
+        <f>iferror(lookup(if(I27="",E27,I27),{0,1,5000},{0.0,0.175,0.175}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <f>iferror(if(I27="",E27,I27)*J27,"")</f>
+        <v>0</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R27" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T27" s="17">
-        <f>iferror(lookup(if(S27="",E27,S27),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.359,0.23,0.174,0.151,0.119,0.1,0.098,0.096,0.094}),"")</f>
+        <f>iferror(lookup(if(S27="",E27,S27),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.635,0.409,0.31,0.269,0.213,0.18,0.174,0.171,0.168}),"")</f>
         <v>0</v>
       </c>
       <c r="U27" s="17">
@@ -3880,21 +3951,21 @@
         <v>0</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="16">
         <f>BoardQty*10</f>
@@ -3909,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="16">
-        <v>21824</v>
+        <v>21789</v>
       </c>
       <c r="J28" s="17">
         <f>iferror(lookup(if(I28="",E28,I28),{0,1,10,100,500,1000,1575},{0.0,0.6,0.531,0.4073,0.322,0.2576,0.2576}),"")</f>
@@ -3920,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R28" s="16">
-        <v>6603</v>
+        <v>6450</v>
       </c>
       <c r="T28" s="17">
         <f>iferror(lookup(if(S28="",E28,S28),{0,1,10,100,1000,2000,5000,10000},{0.0,0.625,0.513,0.33,0.265,0.24,0.224,0.215}),"")</f>
@@ -3934,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W28" s="16">
         <v>3719</v>
@@ -3948,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AB28" s="16">
         <v>75</v>
@@ -3962,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="AF28" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG28" s="16">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AI28" s="17">
         <f>iferror(lookup(if(AH28="",E28,AH28),{0,1,3,10,50,250,1000},{0.0,0.447,0.447,0.41,0.359,0.297,0.26}),"")</f>
@@ -3976,12 +4047,12 @@
         <v>0</v>
       </c>
       <c r="AK28" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I30" s="7">
         <f>IFERROR(IF(OR(I7:I28),COUNTIF(I7:I28,"&gt;0")&amp;" of "&amp;ROWS(I7:I28)&amp;" parts purchased",""),"")</f>
@@ -5646,14 +5717,6 @@
     <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="AG5:AK5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB22">
-    <cfRule type="cellIs" dxfId="1" priority="249" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="250" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB28">
     <cfRule type="cellIs" dxfId="1" priority="254" operator="equal">
       <formula>0</formula>
@@ -5662,31 +5725,16 @@
       <formula>E28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="1" priority="251" operator="greaterThan">
-      <formula>AB22</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC28">
     <cfRule type="cellIs" dxfId="1" priority="256" operator="greaterThan">
       <formula>AB28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD22">
-    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD28">
     <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
       <formula>F28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="4" priority="253" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="4" priority="258" operator="lessThanOrEqual">
       <formula>G28</formula>
@@ -6117,11 +6165,19 @@
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="1" priority="129" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="130" operator="lessThan">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="135" operator="lessThan">
       <formula>E28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6171,8 +6227,13 @@
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="1" priority="131" operator="greaterThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="1" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6216,8 +6277,13 @@
       <formula>F25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
       <formula>F28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6261,8 +6327,13 @@
       <formula>G25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="4" priority="133" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="4" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="138" operator="lessThanOrEqual">
       <formula>G28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6277,531 +6348,531 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="150" operator="lessThan">
+      <formula>E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="cellIs" dxfId="1" priority="154" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="155" operator="lessThan">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="1" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="160" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="1" priority="164" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="170" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="1" priority="174" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="175" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="180" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="185" operator="lessThan">
+      <formula>E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="1" priority="189" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="190" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="195" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="200" operator="lessThan">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="1" priority="204" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="205" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="cellIs" dxfId="1" priority="139" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="140" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
     <cfRule type="cellIs" dxfId="1" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="145" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="cellIs" dxfId="1" priority="151" operator="greaterThan">
+      <formula>R14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="cellIs" dxfId="1" priority="156" operator="greaterThan">
+      <formula>R17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="1" priority="161" operator="greaterThan">
+      <formula>R18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="cellIs" dxfId="1" priority="166" operator="greaterThan">
+      <formula>R19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="cellIs" dxfId="1" priority="171" operator="greaterThan">
+      <formula>R20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="1" priority="176" operator="greaterThan">
+      <formula>R21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
+      <formula>R22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="cellIs" dxfId="1" priority="186" operator="greaterThan">
+      <formula>R23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="cellIs" dxfId="1" priority="191" operator="greaterThan">
+      <formula>R24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="cellIs" dxfId="1" priority="196" operator="greaterThan">
+      <formula>R25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="1" priority="201" operator="greaterThan">
+      <formula>R27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="1" priority="206" operator="greaterThan">
+      <formula>R28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="cellIs" dxfId="1" priority="141" operator="greaterThan">
+      <formula>R7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="cellIs" dxfId="1" priority="146" operator="greaterThan">
+      <formula>R8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="lessThanOrEqual">
+      <formula>F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="cellIs" dxfId="4" priority="157" operator="lessThanOrEqual">
+      <formula>F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="4" priority="162" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="4" priority="167" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="cellIs" dxfId="4" priority="172" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="cellIs" dxfId="4" priority="177" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="4" priority="182" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="cellIs" dxfId="4" priority="187" operator="lessThanOrEqual">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="cellIs" dxfId="4" priority="192" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="cellIs" dxfId="4" priority="197" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="cellIs" dxfId="4" priority="202" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="4" priority="207" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="cellIs" dxfId="4" priority="153" operator="lessThanOrEqual">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="cellIs" dxfId="4" priority="158" operator="lessThanOrEqual">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="cellIs" dxfId="4" priority="163" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="cellIs" dxfId="4" priority="168" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="4" priority="173" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="cellIs" dxfId="4" priority="208" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="cellIs" dxfId="4" priority="148" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="cellIs" dxfId="1" priority="219" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="220" operator="lessThan">
       <formula>E14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
+  <conditionalFormatting sqref="W18">
+    <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="150" operator="lessThan">
-      <formula>E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="1" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="225" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="155" operator="lessThan">
-      <formula>E18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="cellIs" dxfId="1" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="230" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="cellIs" dxfId="1" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="160" operator="lessThan">
-      <formula>E19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="1" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="235" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="cellIs" dxfId="1" priority="239" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="165" operator="lessThan">
-      <formula>E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="240" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="170" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="1" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="245" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
+    <cfRule type="cellIs" dxfId="1" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="175" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="250" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="cellIs" dxfId="1" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="180" operator="lessThan">
-      <formula>E23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="185" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="1" priority="189" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="190" operator="lessThan">
-      <formula>E25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="lessThan">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
-    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="200" operator="lessThan">
-      <formula>E28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="210" operator="lessThan">
       <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="1" priority="139" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="140" operator="lessThan">
-      <formula>E8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="1" priority="146" operator="greaterThan">
-      <formula>R14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="1" priority="151" operator="greaterThan">
-      <formula>R17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="1" priority="156" operator="greaterThan">
-      <formula>R18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="1" priority="161" operator="greaterThan">
-      <formula>R19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="1" priority="166" operator="greaterThan">
-      <formula>R20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
-    <cfRule type="cellIs" dxfId="1" priority="171" operator="greaterThan">
-      <formula>R21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
-    <cfRule type="cellIs" dxfId="1" priority="176" operator="greaterThan">
-      <formula>R22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
-      <formula>R23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="1" priority="186" operator="greaterThan">
-      <formula>R24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="cellIs" dxfId="1" priority="191" operator="greaterThan">
-      <formula>R25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="1" priority="196" operator="greaterThan">
-      <formula>R27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="1" priority="201" operator="greaterThan">
-      <formula>R28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
-      <formula>R7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="1" priority="141" operator="greaterThan">
-      <formula>R8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
-      <formula>F14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
-    <cfRule type="cellIs" dxfId="4" priority="152" operator="lessThanOrEqual">
-      <formula>F17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18">
-    <cfRule type="cellIs" dxfId="4" priority="157" operator="lessThanOrEqual">
-      <formula>F18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="4" priority="162" operator="lessThanOrEqual">
-      <formula>F19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="4" priority="167" operator="lessThanOrEqual">
-      <formula>F20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="4" priority="172" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="4" priority="177" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="4" priority="182" operator="lessThanOrEqual">
-      <formula>F23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
-    <cfRule type="cellIs" dxfId="4" priority="187" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25">
-    <cfRule type="cellIs" dxfId="4" priority="192" operator="lessThanOrEqual">
-      <formula>F25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="4" priority="197" operator="lessThanOrEqual">
-      <formula>F27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="cellIs" dxfId="4" priority="202" operator="lessThanOrEqual">
-      <formula>F28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
-      <formula>F8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="4" priority="148" operator="lessThanOrEqual">
-      <formula>G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="4" priority="153" operator="lessThanOrEqual">
-      <formula>G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18">
-    <cfRule type="cellIs" dxfId="4" priority="158" operator="lessThanOrEqual">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19">
-    <cfRule type="cellIs" dxfId="4" priority="163" operator="lessThanOrEqual">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="4" priority="168" operator="lessThanOrEqual">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="4" priority="173" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
-      <formula>G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="4" priority="138" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="W8">
     <cfRule type="cellIs" dxfId="1" priority="214" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="215" operator="lessThan">
-      <formula>E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="1" priority="219" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="220" operator="lessThan">
-      <formula>E18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="1" priority="224" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="225" operator="lessThan">
-      <formula>E19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="1" priority="229" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="230" operator="lessThan">
-      <formula>E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="1" priority="234" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="235" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="1" priority="239" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="240" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="245" operator="lessThan">
-      <formula>E28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="1" priority="204" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="205" operator="lessThan">
-      <formula>E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="1" priority="209" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="210" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="1" priority="221" operator="greaterThan">
+      <formula>W14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="1" priority="226" operator="greaterThan">
+      <formula>W18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="1" priority="231" operator="greaterThan">
+      <formula>W19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="cellIs" dxfId="1" priority="236" operator="greaterThan">
+      <formula>W20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="1" priority="241" operator="greaterThan">
+      <formula>W21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="1" priority="246" operator="greaterThan">
+      <formula>W24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="1" priority="251" operator="greaterThan">
+      <formula>W28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="1" priority="211" operator="greaterThan">
+      <formula>W7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
     <cfRule type="cellIs" dxfId="1" priority="216" operator="greaterThan">
-      <formula>W14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="1" priority="221" operator="greaterThan">
-      <formula>W18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="1" priority="226" operator="greaterThan">
-      <formula>W19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="1" priority="231" operator="greaterThan">
-      <formula>W20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="1" priority="236" operator="greaterThan">
-      <formula>W21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="greaterThan">
-      <formula>W24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="1" priority="246" operator="greaterThan">
-      <formula>W28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="1" priority="206" operator="greaterThan">
-      <formula>W7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="1" priority="211" operator="greaterThan">
       <formula>W8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="4" priority="222" operator="lessThanOrEqual">
+      <formula>F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18">
+    <cfRule type="cellIs" dxfId="4" priority="227" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
+    <cfRule type="cellIs" dxfId="4" priority="232" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="cellIs" dxfId="4" priority="237" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="cellIs" dxfId="4" priority="242" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="4" priority="212" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
     <cfRule type="cellIs" dxfId="4" priority="217" operator="lessThanOrEqual">
-      <formula>F14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="4" priority="222" operator="lessThanOrEqual">
-      <formula>F18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="4" priority="227" operator="lessThanOrEqual">
-      <formula>F19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="4" priority="232" operator="lessThanOrEqual">
-      <formula>F20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="4" priority="237" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="4" priority="242" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
-      <formula>F28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="4" priority="207" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="4" priority="212" operator="lessThanOrEqual">
       <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14">
+    <cfRule type="cellIs" dxfId="4" priority="223" operator="lessThanOrEqual">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
+    <cfRule type="cellIs" dxfId="4" priority="228" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
+    <cfRule type="cellIs" dxfId="4" priority="233" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20">
+    <cfRule type="cellIs" dxfId="4" priority="238" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="cellIs" dxfId="4" priority="243" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24">
+    <cfRule type="cellIs" dxfId="4" priority="248" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z28">
+    <cfRule type="cellIs" dxfId="4" priority="253" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="4" priority="213" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
     <cfRule type="cellIs" dxfId="4" priority="218" operator="lessThanOrEqual">
-      <formula>G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18">
-    <cfRule type="cellIs" dxfId="4" priority="223" operator="lessThanOrEqual">
-      <formula>G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19">
-    <cfRule type="cellIs" dxfId="4" priority="228" operator="lessThanOrEqual">
-      <formula>G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20">
-    <cfRule type="cellIs" dxfId="4" priority="233" operator="lessThanOrEqual">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="4" priority="238" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24">
-    <cfRule type="cellIs" dxfId="4" priority="243" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z28">
-    <cfRule type="cellIs" dxfId="4" priority="248" operator="lessThanOrEqual">
-      <formula>G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="4" priority="208" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="4" priority="213" operator="lessThanOrEqual">
       <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
